--- a/tools/韻母表.xlsx
+++ b/tools/韻母表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2CA101-6DFD-4068-8E38-A35F44FFCC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3C03FF-7971-4260-B09A-F5D4DE1AE3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB0BAE99-6636-41FD-9DEA-0F42ACBF84C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{AB0BAE99-6636-41FD-9DEA-0F42ACBF84C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Un_Bu_Piau" sheetId="1" r:id="rId1"/>
@@ -1115,7 +1115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -1187,6 +1187,8 @@
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1209,6 +1211,14 @@
       <name val="新細明體"/>
       <family val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Serif TC SemiBold"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1261,7 +1271,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,6 +1309,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -7921,7 +7937,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F16" sqref="F16"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="25.5" customHeight="1"/>
@@ -7968,7 +7984,7 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -7994,7 +8010,7 @@
       <c r="B3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -8020,7 +8036,7 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -8046,7 +8062,7 @@
       <c r="B5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -8072,7 +8088,7 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -8098,7 +8114,7 @@
       <c r="B7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -8124,7 +8140,7 @@
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="13" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -8150,7 +8166,7 @@
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -8176,7 +8192,7 @@
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -8202,7 +8218,7 @@
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -8228,7 +8244,7 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -8254,7 +8270,7 @@
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -8280,7 +8296,7 @@
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -8306,7 +8322,7 @@
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -8332,7 +8348,7 @@
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -8358,7 +8374,7 @@
       <c r="B17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -8384,7 +8400,7 @@
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="13" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -8410,7 +8426,7 @@
       <c r="B19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -8436,7 +8452,7 @@
       <c r="B20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -8462,7 +8478,7 @@
       <c r="B21" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -8488,7 +8504,7 @@
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -8514,7 +8530,7 @@
       <c r="B23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -8540,7 +8556,7 @@
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -8566,7 +8582,7 @@
       <c r="B25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="13" t="s">
         <v>141</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -8592,7 +8608,7 @@
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -8618,7 +8634,7 @@
       <c r="B27" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -8644,7 +8660,7 @@
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -8670,7 +8686,7 @@
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -8696,7 +8712,7 @@
       <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -8722,7 +8738,7 @@
       <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -8748,7 +8764,7 @@
       <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -8774,7 +8790,7 @@
       <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -8800,7 +8816,7 @@
       <c r="B34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -8826,7 +8842,7 @@
       <c r="B35" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="13" t="s">
         <v>168</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -8852,7 +8868,7 @@
       <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="13" t="s">
         <v>172</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -8878,7 +8894,7 @@
       <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="13" t="s">
         <v>175</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -8904,7 +8920,7 @@
       <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -8930,7 +8946,7 @@
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -8956,7 +8972,7 @@
       <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -8982,7 +8998,7 @@
       <c r="B41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="13" t="s">
         <v>184</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -9008,7 +9024,7 @@
       <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -9034,7 +9050,7 @@
       <c r="B43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="13" t="s">
         <v>190</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -9060,7 +9076,7 @@
       <c r="B44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="13" t="s">
         <v>192</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -9086,7 +9102,7 @@
       <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="13" t="s">
         <v>194</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -9112,7 +9128,7 @@
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -9138,7 +9154,7 @@
       <c r="B47" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="13" t="s">
         <v>199</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -9164,7 +9180,7 @@
       <c r="B48" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="14" t="s">
         <v>204</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -9190,7 +9206,7 @@
       <c r="B49" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -9216,7 +9232,7 @@
       <c r="B50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -9242,7 +9258,7 @@
       <c r="B51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="13" t="s">
         <v>211</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -9268,7 +9284,7 @@
       <c r="B52" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="14" t="s">
         <v>215</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -9294,7 +9310,7 @@
       <c r="B53" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -9320,7 +9336,7 @@
       <c r="B54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="13" t="s">
         <v>219</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -9346,7 +9362,7 @@
       <c r="B55" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="13" t="s">
         <v>224</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -9372,7 +9388,7 @@
       <c r="B56" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="13" t="s">
         <v>183</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -9398,7 +9414,7 @@
       <c r="B57" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="13" t="s">
         <v>231</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -9424,7 +9440,7 @@
       <c r="B58" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="13" t="s">
         <v>235</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -9450,7 +9466,7 @@
       <c r="B59" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -9476,7 +9492,7 @@
       <c r="B60" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="13" t="s">
         <v>240</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -9502,7 +9518,7 @@
       <c r="B61" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="14" t="s">
         <v>126</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -9528,7 +9544,7 @@
       <c r="B62" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="13" t="s">
         <v>247</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -9554,7 +9570,7 @@
       <c r="B63" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="13" t="s">
         <v>250</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -9580,7 +9596,7 @@
       <c r="B64" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="13" t="s">
         <v>210</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -9606,7 +9622,7 @@
       <c r="B65" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="13" t="s">
         <v>254</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -9632,7 +9648,7 @@
       <c r="B66" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="13" t="s">
         <v>256</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -9658,7 +9674,7 @@
       <c r="B67" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="13" t="s">
         <v>258</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -9684,7 +9700,7 @@
       <c r="B68" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="13" t="s">
         <v>262</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -9710,7 +9726,7 @@
       <c r="B69" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="13" t="s">
         <v>265</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -9736,7 +9752,7 @@
       <c r="B70" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -9762,7 +9778,7 @@
       <c r="B71" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -9788,7 +9804,7 @@
       <c r="B72" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="13" t="s">
         <v>272</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -9814,7 +9830,7 @@
       <c r="B73" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -9840,7 +9856,7 @@
       <c r="B74" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -9866,7 +9882,7 @@
       <c r="B75" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="13" t="s">
         <v>278</v>
       </c>
       <c r="D75" s="3" t="s">
